--- a/data/GEO_upload_info/Human-tumor-seq.xlsx
+++ b/data/GEO_upload_info/Human-tumor-seq.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smgroves/Documents/GitHub/Groves-CellSys2021/data/GEO_upload_info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46BD952D-A871-432F-85BE-1BC936FD43A8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB75CB6-59F9-0E4A-AAE1-629A5AB9E302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="1170" windowWidth="26205" windowHeight="13965"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="17920" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="METADATA TEMPLATE " sheetId="1" r:id="rId1"/>
@@ -30,13 +30,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ledoux</author>
     <author>barrett</author>
   </authors>
   <commentList>
-    <comment ref="A9" authorId="0" shapeId="0">
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -50,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0" shapeId="0">
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -64,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="0" shapeId="0">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -79,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A12" authorId="0" shapeId="0">
+    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -95,7 +95,43 @@
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="0" shapeId="0">
+    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">"Firstname,Initial,Lastname".
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Example: "John,H,Smith" or "Jane,Doe". 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Each contributor on a separate line, add as many contributor lines as required.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -111,7 +147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A14" authorId="0" shapeId="0">
+    <comment ref="A15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -127,23 +163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A15" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="8"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>"Firstname,Initial,Lastname".
-Example: "John,H,Smith" or "Jane,Doe". 
-Each contributor on a separate line, add as many contributor lines as required.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A16" authorId="0" shapeId="0">
+    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -158,7 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A22" authorId="0" shapeId="0">
+    <comment ref="A22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -172,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B22" authorId="0" shapeId="0">
+    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -186,7 +206,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C22" authorId="0" shapeId="0">
+    <comment ref="C22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -200,7 +220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D22" authorId="0" shapeId="0">
+    <comment ref="D22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -214,13 +234,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="E22" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
+    <comment ref="E22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -228,13 +248,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="F22" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
+    <comment ref="F22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -242,21 +262,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G22" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Replace 'tag' with a biosource characteristic (e.g. "strain", "tissue", "developmental stage", "tumor stage", etc), and then enter the value for each sample beneath (e.g. "129SV", "brain", "embryo", etc). You may add multiple characteristics columns to this template (as presented in EXAMPLE 1 worksheet).</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H22" authorId="0" shapeId="0">
+    <comment ref="G22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -270,7 +276,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I22" authorId="0" shapeId="0">
+    <comment ref="H22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -285,7 +291,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J22" authorId="0" shapeId="0">
+    <comment ref="I22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -300,7 +306,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K22" authorId="0" shapeId="0">
+    <comment ref="J22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -316,7 +322,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L22" authorId="0" shapeId="0">
+    <comment ref="K22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -332,7 +338,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A34" authorId="0" shapeId="0">
+    <comment ref="A34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -346,7 +352,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A35" authorId="0" shapeId="0">
+    <comment ref="A35" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -360,7 +366,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A36" authorId="0" shapeId="0">
+    <comment ref="A36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -374,7 +380,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A37" authorId="0" shapeId="0">
+    <comment ref="A37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -388,45 +394,286 @@
         </r>
       </text>
     </comment>
-    <comment ref="A38" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
+    <comment ref="A38" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">A Sequence Read Archive-specific field that describes the sequencing technique for this library. Please select one of the following terms:
-RNA-Seq
-miRNA-Seq
-ncRNA-Seq
-RNA-Seq (size fractionation)
-RNA-Seq (CAGE)
-RNA-Seq (RACE)
-ssRNA-seq
-ChIP-Seq
-MNase-Seq
-MBD-Seq
-MRE-Seq
-Bisulfite-Seq
-Bisulfite-Seq (reduced representation)
-MeDIP-Seq
-DNase-Hypersensitivity
-Tn-Seq
-FAIRE-seq
-SELEX
-RIP-Seq
-ATAC-seq
-ChIA-PET
-Hi-C
-OTHER: specify
 </t>
         </r>
-      </text>
-    </comment>
-    <comment ref="A43" authorId="0" shapeId="0">
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">RNA-Seq
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">miRNA-Seq
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ncRNA-Seq
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">RNA-Seq (size fractionation)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">RNA-Seq (CAGE)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">RNA-Seq (RACE)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ssRNA-seq
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ChIP-Seq
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">MNase-Seq
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">MBD-Seq
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">MRE-Seq
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Bisulfite-Seq
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Bisulfite-Seq (reduced representation)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">MeDIP-Seq
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">DNase-Hypersensitivity
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Tn-Seq
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">FAIRE-seq
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">SELEX
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">RIP-Seq
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ATAC-seq
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ChIA-PET
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Hi-C
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">OTHER: specify
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -446,7 +693,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A44" authorId="0" shapeId="0">
+    <comment ref="A44" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -466,7 +713,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A45" authorId="0" shapeId="0">
+    <comment ref="A45" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -486,7 +733,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A46" authorId="0" shapeId="0">
+    <comment ref="A46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -506,7 +753,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A47" authorId="0" shapeId="0">
+    <comment ref="A47" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -526,7 +773,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A48" authorId="0" shapeId="0">
+    <comment ref="A48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -541,7 +788,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A49" authorId="0" shapeId="0">
+    <comment ref="A49" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
       <text>
         <r>
           <rPr>
@@ -556,7 +803,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B53" authorId="0" shapeId="0">
+    <comment ref="B53" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021000000}">
       <text>
         <r>
           <rPr>
@@ -570,7 +817,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C53" authorId="0" shapeId="0">
+    <comment ref="C53" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000022000000}">
       <text>
         <r>
           <rPr>
@@ -585,7 +832,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B59" authorId="0" shapeId="0">
+    <comment ref="B59" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000023000000}">
       <text>
         <r>
           <rPr>
@@ -612,7 +859,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C59" authorId="0" shapeId="0">
+    <comment ref="C59" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000024000000}">
       <text>
         <r>
           <rPr>
@@ -627,7 +874,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D59" authorId="0" shapeId="0">
+    <comment ref="D59" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000025000000}">
       <text>
         <r>
           <rPr>
@@ -690,7 +937,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E59" authorId="0" shapeId="0">
+    <comment ref="E59" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000026000000}">
       <text>
         <r>
           <rPr>
@@ -709,13 +956,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ledoux</author>
     <author>barrett</author>
   </authors>
   <commentList>
-    <comment ref="A9" authorId="0" shapeId="0">
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -729,7 +976,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0" shapeId="0">
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -743,7 +990,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="0" shapeId="0">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -758,7 +1005,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A12" authorId="0" shapeId="0">
+    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -774,7 +1021,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="0" shapeId="0">
+    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -790,7 +1037,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A14" authorId="0" shapeId="0">
+    <comment ref="A14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -805,7 +1052,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0" shapeId="0">
+    <comment ref="A20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -819,7 +1066,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B20" authorId="0" shapeId="0">
+    <comment ref="B20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
         <r>
           <rPr>
@@ -833,7 +1080,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C20" authorId="0" shapeId="0">
+    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
         <r>
           <rPr>
@@ -847,7 +1094,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D20" authorId="0" shapeId="0">
+    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -861,7 +1108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E20" authorId="0" shapeId="0">
+    <comment ref="E20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -875,7 +1122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F20" authorId="0" shapeId="0">
+    <comment ref="F20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -889,7 +1136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H20" authorId="0" shapeId="0">
+    <comment ref="H20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -903,7 +1150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J20" authorId="0" shapeId="0">
+    <comment ref="J20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -917,7 +1164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K20" authorId="0" shapeId="0">
+    <comment ref="K20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -932,7 +1179,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L20" authorId="0" shapeId="0">
+    <comment ref="L20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000010000000}">
       <text>
         <r>
           <rPr>
@@ -947,7 +1194,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M20" authorId="0" shapeId="0">
+    <comment ref="M20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000011000000}">
       <text>
         <r>
           <rPr>
@@ -962,7 +1209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N20" authorId="0" shapeId="0">
+    <comment ref="N20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000012000000}">
       <text>
         <r>
           <rPr>
@@ -978,7 +1225,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O20" authorId="0" shapeId="0">
+    <comment ref="O20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000013000000}">
       <text>
         <r>
           <rPr>
@@ -994,7 +1241,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A28" authorId="0" shapeId="0">
+    <comment ref="A28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000014000000}">
       <text>
         <r>
           <rPr>
@@ -1008,7 +1255,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A29" authorId="0" shapeId="0">
+    <comment ref="A29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000015000000}">
       <text>
         <r>
           <rPr>
@@ -1022,7 +1269,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A30" authorId="0" shapeId="0">
+    <comment ref="A30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000016000000}">
       <text>
         <r>
           <rPr>
@@ -1036,7 +1283,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A31" authorId="0" shapeId="0">
+    <comment ref="A31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000017000000}">
       <text>
         <r>
           <rPr>
@@ -1050,7 +1297,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A32" authorId="1" shapeId="0">
+    <comment ref="A32" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000018000000}">
       <text>
         <r>
           <rPr>
@@ -1088,7 +1335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A37" authorId="0" shapeId="0">
+    <comment ref="A37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000019000000}">
       <text>
         <r>
           <rPr>
@@ -1108,7 +1355,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A38" authorId="0" shapeId="0">
+    <comment ref="A38" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -1128,7 +1375,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A39" authorId="0" shapeId="0">
+    <comment ref="A39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -1148,7 +1395,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A40" authorId="0" shapeId="0">
+    <comment ref="A40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -1168,7 +1415,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A41" authorId="0" shapeId="0">
+    <comment ref="A41" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -1188,7 +1435,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A42" authorId="0" shapeId="0">
+    <comment ref="A42" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -1203,7 +1450,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A43" authorId="0" shapeId="0">
+    <comment ref="A43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -1218,7 +1465,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B48" authorId="0" shapeId="0">
+    <comment ref="B48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000020000000}">
       <text>
         <r>
           <rPr>
@@ -1232,7 +1479,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C48" authorId="0" shapeId="0">
+    <comment ref="C48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000021000000}">
       <text>
         <r>
           <rPr>
@@ -1247,7 +1494,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B60" authorId="0" shapeId="0">
+    <comment ref="B60" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000022000000}">
       <text>
         <r>
           <rPr>
@@ -1274,7 +1521,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C60" authorId="0" shapeId="0">
+    <comment ref="C60" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000023000000}">
       <text>
         <r>
           <rPr>
@@ -1289,7 +1536,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D60" authorId="0" shapeId="0">
+    <comment ref="D60" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000024000000}">
       <text>
         <r>
           <rPr>
@@ -1352,7 +1599,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E60" authorId="0" shapeId="0">
+    <comment ref="E60" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000025000000}">
       <text>
         <r>
           <rPr>
@@ -1371,13 +1618,13 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ledoux</author>
     <author>barrett</author>
   </authors>
   <commentList>
-    <comment ref="A9" authorId="0" shapeId="0">
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1391,7 +1638,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0" shapeId="0">
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1405,7 +1652,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A14" authorId="0" shapeId="0">
+    <comment ref="A14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1420,7 +1667,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A15" authorId="0" shapeId="0">
+    <comment ref="A15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1436,7 +1683,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A16" authorId="0" shapeId="0">
+    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1452,7 +1699,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A17" authorId="0" shapeId="0">
+    <comment ref="A17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1467,7 +1714,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A23" authorId="0" shapeId="0">
+    <comment ref="A23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1481,7 +1728,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B23" authorId="0" shapeId="0">
+    <comment ref="B23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1495,7 +1742,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C23" authorId="0" shapeId="0">
+    <comment ref="C23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1509,7 +1756,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D23" authorId="0" shapeId="0">
+    <comment ref="D23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -1523,7 +1770,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E23" authorId="0" shapeId="0">
+    <comment ref="E23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -1537,7 +1784,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F23" authorId="0" shapeId="0">
+    <comment ref="F23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -1551,7 +1798,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G23" authorId="0" shapeId="0">
+    <comment ref="G23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -1565,7 +1812,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K23" authorId="0" shapeId="0">
+    <comment ref="K23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -1579,7 +1826,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L23" authorId="0" shapeId="0">
+    <comment ref="L23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -1594,7 +1841,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M23" authorId="0" shapeId="0">
+    <comment ref="M23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000010000000}">
       <text>
         <r>
           <rPr>
@@ -1609,7 +1856,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N23" authorId="0" shapeId="0">
+    <comment ref="N23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000011000000}">
       <text>
         <r>
           <rPr>
@@ -1625,7 +1872,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O23" authorId="0" shapeId="0">
+    <comment ref="O23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000012000000}">
       <text>
         <r>
           <rPr>
@@ -1641,7 +1888,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A31" authorId="0" shapeId="0">
+    <comment ref="A31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000013000000}">
       <text>
         <r>
           <rPr>
@@ -1655,7 +1902,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A32" authorId="0" shapeId="0">
+    <comment ref="A32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000014000000}">
       <text>
         <r>
           <rPr>
@@ -1669,7 +1916,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A33" authorId="0" shapeId="0">
+    <comment ref="A33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000015000000}">
       <text>
         <r>
           <rPr>
@@ -1683,7 +1930,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A34" authorId="0" shapeId="0">
+    <comment ref="A34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000016000000}">
       <text>
         <r>
           <rPr>
@@ -1697,7 +1944,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A35" authorId="1" shapeId="0">
+    <comment ref="A35" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000017000000}">
       <text>
         <r>
           <rPr>
@@ -1735,7 +1982,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A40" authorId="0" shapeId="0">
+    <comment ref="A40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000018000000}">
       <text>
         <r>
           <rPr>
@@ -1755,7 +2002,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A41" authorId="0" shapeId="0">
+    <comment ref="A41" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000019000000}">
       <text>
         <r>
           <rPr>
@@ -1775,7 +2022,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A42" authorId="0" shapeId="0">
+    <comment ref="A42" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -1795,7 +2042,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A43" authorId="0" shapeId="0">
+    <comment ref="A43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -1815,7 +2062,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A44" authorId="0" shapeId="0">
+    <comment ref="A44" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -1835,7 +2082,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A45" authorId="0" shapeId="0">
+    <comment ref="A45" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -1850,7 +2097,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A46" authorId="0" shapeId="0">
+    <comment ref="A46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -1865,7 +2112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B51" authorId="0" shapeId="0">
+    <comment ref="B51" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -1879,7 +2126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C51" authorId="0" shapeId="0">
+    <comment ref="C51" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000020000000}">
       <text>
         <r>
           <rPr>
@@ -1894,7 +2141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B60" authorId="0" shapeId="0">
+    <comment ref="B60" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000021000000}">
       <text>
         <r>
           <rPr>
@@ -1921,7 +2168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C60" authorId="0" shapeId="0">
+    <comment ref="C60" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000022000000}">
       <text>
         <r>
           <rPr>
@@ -1936,7 +2183,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D60" authorId="0" shapeId="0">
+    <comment ref="D60" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000023000000}">
       <text>
         <r>
           <rPr>
@@ -1999,7 +2246,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E60" authorId="0" shapeId="0">
+    <comment ref="E60" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000024000000}">
       <text>
         <r>
           <rPr>
@@ -2018,7 +2265,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="189">
   <si>
     <t>title</t>
   </si>
@@ -2105,21 +2352,6 @@
   </si>
   <si>
     <t xml:space="preserve">treatment protocol </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">characteristics: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>tag</t>
-    </r>
   </si>
   <si>
     <t>Genome-wide maps of chromatin state in pluripotent and lineage-committed cells.</t>
@@ -2787,12 +3019,91 @@
       <t xml:space="preserve"> information is required. </t>
     </r>
   </si>
+  <si>
+    <t>Archetype tasks link intratumoral heterogeneity to plasticity in recalcitrant small cell lung cancer</t>
+  </si>
+  <si>
+    <t>Intratumoral heterogeneity underlies cancer treatment resistance, but approaches to neutralize it remain elusive. Here, we recast heterogeneity in a systems perspective that considers cancer cell functional tasks inherited from cells of origin. We apply Archetype Analysis to bulk transcriptomics data from small cell lung cancer (SCLC), which forms tumors composed of neuroendocrine (NE) and non-neuroendocrine (non-NE) transcriptional subtypes. SCLC subtypes fit well in a 5-dimensional polytope whose vertices optimize tasks reminiscent of pulmonary NE cells, the SCLC normal counterpart, and include injury repair, slithering, and chemosensation. SCLC cells near a vertex are specialists for a task, while more distant cells are generalists, bearing gene signatures of multiple archetypes. Evolutionary theory and dynamical systems modeling suggest a division of labor strategy for adaptation to treatment, based on task trade-offs amongst specialists and generalists. Cell Transport Potential, a metric derived from single-cell RNA velocity, uncovers plasticity trends from specialists to generalists, and NE to non-NE subtypes. Transcription factor network simulations indicate that MYC overexpression increases plasticity by de-stabilizing NE subtypes. Framing heterogeneity in archetype space provides insights into transformative cancer treatments aimed at tumor cell plasticity.</t>
+  </si>
+  <si>
+    <t>Sarah Groves</t>
+  </si>
+  <si>
+    <t>Vito Quaranta</t>
+  </si>
+  <si>
+    <t>Marisol Ramirez</t>
+  </si>
+  <si>
+    <t>Qi Liu</t>
+  </si>
+  <si>
+    <t>scRNA-seq on two human tumors</t>
+  </si>
+  <si>
+    <t>Human tumor 1</t>
+  </si>
+  <si>
+    <t>Human tumor 2</t>
+  </si>
+  <si>
+    <t>homo sapiens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human SCLC tumor </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">characteristics: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>collection method</t>
+    </r>
+  </si>
+  <si>
+    <t>Upper right lobectomy</t>
+  </si>
+  <si>
+    <t>Relapsed</t>
+  </si>
+  <si>
+    <t>bronchoscopy with transbronchial needle aspiration of a left hilar mass</t>
+  </si>
+  <si>
+    <t>characteristics: Stage/treatment</t>
+  </si>
+  <si>
+    <t>Stage 1B mixed SCLC/LCNEC, relapsed (EP standard of care)</t>
+  </si>
+  <si>
+    <t>The two human SCLC tumors were collected in collaboration with Vanderbilt University Medical Center. Tumor was immediately placed on cold RPMI on ice for dissociation for sequencing.</t>
+  </si>
+  <si>
+    <t>Both patients received etoposide and cisplatin. Tumor 1 came from a patient who also received prophylactic cranial irradiation</t>
+  </si>
+  <si>
+    <t>Tissue was washed in an RBC lysis buffer, passed through a 70 μm filter, and washed in PBS. Cells were dissociated with cold DNAse and proteases and titrated every 5-10 minutes to increase dissociation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tumor 1: . Library preparation for scRNA-seq was performed according to previous protocols (Banerjee et al., 2020), and cells were sequenced using BGI MGI-seq. 
+Tumor 2: Tumor was immediately placed in cold RPMI on ice for dissociation. Library preparation for scRNA-seq was performed as described previously (Banerjee et al., 2020). Cells were prepared for sequencing using TruDrop (Southard-Smith et al., 2020) and sequenced on Nova-seq. </t>
+  </si>
+  <si>
+    <t>RNA-seq</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2842,36 +3153,8 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color indexed="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -2893,6 +3176,25 @@
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333666"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2929,14 +3231,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2969,20 +3271,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3317,189 +3627,203 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor indexed="14"/>
   </sheetPr>
-  <dimension ref="A1:L231"/>
+  <dimension ref="A1:K231"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="28.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="42.140625" style="20" customWidth="1"/>
-    <col min="2" max="16384" width="28.7109375" style="20"/>
+    <col min="1" max="1" width="42.1640625" style="20" customWidth="1"/>
+    <col min="2" max="16384" width="28.6640625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
+      <c r="I2" s="4"/>
       <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
+      <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
+      <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
+      <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
+      <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
+      <c r="I7" s="11"/>
       <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-    </row>
-    <row r="8" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
+      <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="7"/>
+      <c r="B9" s="39" t="s">
+        <v>167</v>
+      </c>
       <c r="C9" s="7"/>
+      <c r="I9" s="7"/>
       <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-    </row>
-    <row r="10" spans="1:11" s="27" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:10" s="27" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="14"/>
+      <c r="B10" s="40" t="s">
+        <v>168</v>
+      </c>
       <c r="C10" s="7"/>
+      <c r="I10" s="7"/>
       <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-    </row>
-    <row r="11" spans="1:11" s="27" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:10" s="27" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="7"/>
+      <c r="B11" s="41" t="s">
+        <v>173</v>
+      </c>
       <c r="C11" s="7"/>
+      <c r="I11" s="7"/>
       <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-    </row>
-    <row r="12" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="14"/>
+      <c r="B12" s="35" t="s">
+        <v>169</v>
+      </c>
       <c r="C12" s="7"/>
+      <c r="I12" s="11"/>
       <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-    </row>
-    <row r="13" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="14"/>
+      <c r="B13" s="35" t="s">
+        <v>170</v>
+      </c>
       <c r="C13" s="7"/>
+      <c r="I13" s="11"/>
       <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-    </row>
-    <row r="14" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="14"/>
+      <c r="B14" s="35" t="s">
+        <v>171</v>
+      </c>
       <c r="C14" s="7"/>
+      <c r="I14" s="11"/>
       <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-    </row>
-    <row r="15" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="14"/>
+      <c r="B15" s="35" t="s">
+        <v>172</v>
+      </c>
       <c r="C15" s="7"/>
+      <c r="I15" s="11"/>
       <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-    </row>
-    <row r="16" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B16" s="24"/>
       <c r="C16" s="7"/>
+      <c r="I16" s="11"/>
       <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-    </row>
-    <row r="17" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
       <c r="B17" s="14"/>
       <c r="C17" s="7"/>
+      <c r="I17" s="11"/>
       <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-    </row>
-    <row r="18" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="7"/>
+      <c r="I18" s="11"/>
       <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-    </row>
-    <row r="19" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="36" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B21" s="38"/>
       <c r="C21" s="38"/>
@@ -3508,9 +3832,8 @@
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
       <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-    </row>
-    <row r="22" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
         <v>4</v>
       </c>
@@ -3524,212 +3847,243 @@
         <v>7</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>29</v>
+        <v>178</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K22" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="L22" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:11" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A23" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A24" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-    </row>
-    <row r="24" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-    </row>
-    <row r="25" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="12" t="s">
-        <v>64</v>
-      </c>
+      <c r="B24" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="18"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" s="18"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="18"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="18"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" s="18"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" s="18"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B32" s="12"/>
     </row>
-    <row r="33" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="22" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="8"/>
+      <c r="B34" s="42" t="s">
+        <v>184</v>
+      </c>
       <c r="C34" s="8"/>
+      <c r="I34" s="8"/>
       <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="8"/>
+      <c r="B35" s="8" t="s">
+        <v>185</v>
+      </c>
       <c r="C35" s="8"/>
+      <c r="I35" s="8"/>
       <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B36" s="8"/>
+        <v>111</v>
+      </c>
+      <c r="B36" s="42" t="s">
+        <v>186</v>
+      </c>
       <c r="C36" s="8"/>
+      <c r="I36" s="8"/>
       <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="8"/>
+      <c r="B37" s="8" t="s">
+        <v>187</v>
+      </c>
       <c r="C37" s="8"/>
+      <c r="I37" s="8"/>
       <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="8"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B38" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="2"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="32" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B46" s="12"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="8"/>
+      <c r="I47" s="8"/>
       <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B48" s="9"/>
       <c r="C48" s="8"/>
+      <c r="I48" s="8"/>
       <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B49" s="9"/>
       <c r="C49" s="8"/>
+      <c r="I49" s="8"/>
       <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" s="5"/>
       <c r="B50" s="14"/>
       <c r="C50" s="8"/>
+      <c r="I50" s="8"/>
       <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-    </row>
-    <row r="51" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="29" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="30" t="s">
         <v>19</v>
       </c>
@@ -3740,27 +4094,27 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54" s="12"/>
     </row>
-    <row r="55" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A55" s="12"/>
     </row>
-    <row r="56" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A56" s="12"/>
     </row>
-    <row r="57" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="21" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="29" t="s">
         <v>23</v>
       </c>
       <c r="D58" s="29"/>
     </row>
-    <row r="59" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59" s="30" t="s">
         <v>19</v>
       </c>
@@ -3778,26 +4132,26 @@
       </c>
       <c r="F59" s="30"/>
     </row>
-    <row r="60" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F60" s="24"/>
     </row>
-    <row r="61" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F61" s="24"/>
     </row>
-    <row r="62" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F62" s="24"/>
     </row>
-    <row r="63" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A63" s="21" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A64" s="29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A65" s="30" t="s">
         <v>25</v>
       </c>
@@ -3805,497 +4159,497 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="67" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="68" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="69" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="70" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="67" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="68" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="69" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="70" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" s="27"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" s="27"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" s="27"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" s="27"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" s="27"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" s="27"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" s="27"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" s="27"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" s="27"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" s="27"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A81" s="27"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A82" s="27"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A83" s="27"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A84" s="27"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A85" s="27"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A86" s="27"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A87" s="27"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A88" s="27"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A89" s="27"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A90" s="27"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A91" s="27"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A92" s="27"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A93" s="27"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A94" s="27"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A95" s="27"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A96" s="27"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A97" s="27"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A98" s="27"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A99" s="27"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A100" s="27"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A101" s="27"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A102" s="27"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A103" s="27"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A104" s="27"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A105" s="27"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A106" s="27"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A107" s="27"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A108" s="27"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A109" s="27"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A110" s="27"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A111" s="27"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A112" s="27"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A113" s="27"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A114" s="27"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A115" s="27"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A116" s="27"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A117" s="27"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A118" s="27"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A119" s="27"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A120" s="27"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A121" s="27"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A122" s="27"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A123" s="27"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A124" s="27"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A125" s="27"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A126" s="27"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A127" s="27"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A128" s="27"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A129" s="27"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A130" s="27"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A131" s="27"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A132" s="27"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A133" s="27"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A134" s="27"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A135" s="27"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A136" s="27"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A137" s="27"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A138" s="27"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A139" s="27"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A140" s="27"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A141" s="27"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A142" s="27"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A143" s="27"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A144" s="27"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A145" s="27"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A146" s="27"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A147" s="27"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A148" s="27"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A149" s="27"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A150" s="27"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A151" s="27"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A152" s="27"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A153" s="27"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A154" s="27"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A155" s="27"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A156" s="27"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A157" s="27"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A158" s="27"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A159" s="27"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A160" s="27"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A161" s="27"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A162" s="27"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A163" s="27"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A164" s="27"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A165" s="27"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A166" s="27"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A167" s="27"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A168" s="27"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A169" s="27"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A170" s="27"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A171" s="27"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A172" s="27"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A173" s="27"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A174" s="27"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A175" s="27"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A176" s="27"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A177" s="27"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A178" s="27"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A179" s="27"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A180" s="27"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A181" s="27"/>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A182" s="27"/>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A183" s="27"/>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A184" s="27"/>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A185" s="27"/>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A186" s="27"/>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A187" s="27"/>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A188" s="27"/>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A189" s="27"/>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A190" s="27"/>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A191" s="27"/>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A192" s="27"/>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A193" s="27"/>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A194" s="27"/>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A195" s="27"/>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A196" s="27"/>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A197" s="27"/>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A198" s="27"/>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A199" s="27"/>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A200" s="27"/>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A201" s="27"/>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A202" s="27"/>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A203" s="27"/>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A204" s="27"/>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A205" s="27"/>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A206" s="27"/>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A207" s="27"/>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A208" s="27"/>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A209" s="27"/>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A210" s="27"/>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A211" s="27"/>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A212" s="27"/>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A213" s="27"/>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A214" s="27"/>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A215" s="27"/>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A216" s="27"/>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A217" s="27"/>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A218" s="27"/>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A219" s="27"/>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A220" s="27"/>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A221" s="27"/>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A222" s="27"/>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A223" s="27"/>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A224" s="27"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A225" s="27"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A226" s="27"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A227" s="27"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A228" s="27"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A229" s="27"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A230" s="27"/>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A231" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A21:H21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4306,7 +4660,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -4316,21 +4670,21 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="28.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="42.140625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" style="20" customWidth="1"/>
-    <col min="3" max="16384" width="28.7109375" style="20"/>
+    <col min="1" max="1" width="42.1640625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="40.83203125" style="20" customWidth="1"/>
+    <col min="3" max="16384" width="28.6640625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -4338,9 +4692,9 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -4348,9 +4702,9 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -4358,9 +4712,9 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -4368,7 +4722,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -4376,7 +4730,7 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -4386,9 +4740,9 @@
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
     </row>
-    <row r="8" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -4396,69 +4750,69 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
     </row>
-    <row r="10" spans="1:12" s="27" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" s="27" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
     </row>
-    <row r="11" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
     </row>
-    <row r="12" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" s="7"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
     </row>
-    <row r="13" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13" s="7"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
     </row>
-    <row r="14" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B14" s="24"/>
       <c r="C14" s="7"/>
@@ -4466,7 +4820,7 @@
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
     </row>
-    <row r="15" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
       <c r="B15" s="14"/>
       <c r="C15" s="7"/>
@@ -4474,7 +4828,7 @@
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
     </row>
-    <row r="16" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -4484,19 +4838,19 @@
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
     </row>
-    <row r="17" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="36" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B19" s="38"/>
       <c r="C19" s="38"/>
@@ -4507,7 +4861,7 @@
       <c r="H19" s="38"/>
       <c r="I19" s="38"/>
     </row>
-    <row r="20" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10" t="s">
         <v>4</v>
       </c>
@@ -4521,19 +4875,19 @@
         <v>7</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J20" s="10" t="s">
         <v>8</v>
@@ -4554,281 +4908,281 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="N21" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="O21" s="11"/>
+    </row>
+    <row r="22" spans="1:15" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A22" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B22" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C22" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" s="17" t="s">
+      <c r="E22" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="J21" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="L21" s="12" t="s">
+      <c r="F22" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="L22" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="M21" s="12" t="s">
+      <c r="M22" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="N21" s="11" t="s">
+      <c r="N22" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="O21" s="11"/>
-    </row>
-    <row r="22" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
+      <c r="O22" s="11"/>
+    </row>
+    <row r="23" spans="1:15" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A23" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="C22" s="12" t="s">
+      <c r="B23" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" s="17" t="s">
+      <c r="E23" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G22" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="L22" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="M22" s="12" t="s">
+      <c r="F23" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="M23" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="N22" s="11" t="s">
+      <c r="N23" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="O22" s="11"/>
-    </row>
-    <row r="23" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="C23" s="12" t="s">
+      <c r="O23" s="11"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A24" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="17" t="s">
+      <c r="E24" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="F24" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="J24" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="H23" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="J23" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="M23" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="N23" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="O23" s="11"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="H24" s="20" t="s">
+      <c r="L24" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="M24" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="J24" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="L24" s="20" t="s">
+      <c r="N24" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="M24" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="N24" s="20" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" s="18"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="12"/>
     </row>
-    <row r="27" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="22" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" s="2"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34" s="32" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B38" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B39" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A40" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" s="20" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="8"/>
@@ -4836,43 +5190,43 @@
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45" s="5"/>
       <c r="B45" s="14"/>
       <c r="C45" s="8"/>
@@ -4880,17 +5234,17 @@
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
     </row>
-    <row r="46" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="29" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="30" t="s">
         <v>19</v>
       </c>
@@ -4901,102 +5255,102 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="B49" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="12" t="s">
+      <c r="B50" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="B50" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="C50" s="12" t="s">
+      <c r="B52" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
     </row>
-    <row r="57" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="12"/>
     </row>
-    <row r="58" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59" s="29" t="s">
         <v>23</v>
       </c>
       <c r="D59" s="29"/>
     </row>
-    <row r="60" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60" s="30" t="s">
         <v>19</v>
       </c>
@@ -5014,92 +5368,92 @@
       </c>
       <c r="F60" s="30"/>
     </row>
-    <row r="61" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A61" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E61" s="24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="B61" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C61" s="12" t="s">
+      <c r="B62" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C62" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D61" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="E61" s="24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="11" t="s">
+      <c r="D62" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E62" s="24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="B62" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C62" s="12" t="s">
+      <c r="B63" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C63" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D62" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="E62" s="24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B63" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>40</v>
-      </c>
       <c r="D63" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E63" s="24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A64" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C64" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="B64" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>148</v>
-      </c>
       <c r="D64" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E64" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F64" s="24"/>
     </row>
-    <row r="65" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F65" s="24"/>
     </row>
-    <row r="66" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F66" s="24"/>
     </row>
-    <row r="67" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A67" s="21" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A68" s="29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A69" s="30" t="s">
         <v>25</v>
       </c>
@@ -5107,492 +5461,492 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="71" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="72" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="73" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="74" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="71" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="72" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="73" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="74" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="27"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="27"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="27"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="27"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="27"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="27"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A81" s="27"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A82" s="27"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A83" s="27"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A84" s="27"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A85" s="27"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A86" s="27"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A87" s="27"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A88" s="27"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A89" s="27"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A90" s="27"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A91" s="27"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A92" s="27"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A93" s="27"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A94" s="27"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A95" s="27"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A96" s="27"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A97" s="27"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A98" s="27"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A99" s="27"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A100" s="27"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A101" s="27"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A102" s="27"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A103" s="27"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A104" s="27"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A105" s="27"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A106" s="27"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A107" s="27"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A108" s="27"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A109" s="27"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A110" s="27"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A111" s="27"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A112" s="27"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A113" s="27"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A114" s="27"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A115" s="27"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A116" s="27"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A117" s="27"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A118" s="27"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A119" s="27"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A120" s="27"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A121" s="27"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A122" s="27"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A123" s="27"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A124" s="27"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A125" s="27"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A126" s="27"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A127" s="27"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A128" s="27"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A129" s="27"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A130" s="27"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A131" s="27"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A132" s="27"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A133" s="27"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A134" s="27"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A135" s="27"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A136" s="27"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A137" s="27"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A138" s="27"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A139" s="27"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A140" s="27"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A141" s="27"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A142" s="27"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A143" s="27"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A144" s="27"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A145" s="27"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A146" s="27"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A147" s="27"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A148" s="27"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A149" s="27"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A150" s="27"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A151" s="27"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A152" s="27"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A153" s="27"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A154" s="27"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A155" s="27"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A156" s="27"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A157" s="27"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A158" s="27"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A159" s="27"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A160" s="27"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A161" s="27"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A162" s="27"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A163" s="27"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A164" s="27"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A165" s="27"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A166" s="27"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A167" s="27"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A168" s="27"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A169" s="27"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A170" s="27"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A171" s="27"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A172" s="27"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A173" s="27"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A174" s="27"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A175" s="27"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A176" s="27"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A177" s="27"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A178" s="27"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A179" s="27"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A180" s="27"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A181" s="27"/>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A182" s="27"/>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A183" s="27"/>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A184" s="27"/>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A185" s="27"/>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A186" s="27"/>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A187" s="27"/>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A188" s="27"/>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A189" s="27"/>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A190" s="27"/>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A191" s="27"/>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A192" s="27"/>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A193" s="27"/>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A194" s="27"/>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A195" s="27"/>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A196" s="27"/>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A197" s="27"/>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A198" s="27"/>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A199" s="27"/>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A200" s="27"/>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A201" s="27"/>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A202" s="27"/>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A203" s="27"/>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A204" s="27"/>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A205" s="27"/>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A206" s="27"/>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A207" s="27"/>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A208" s="27"/>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A209" s="27"/>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A210" s="27"/>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A211" s="27"/>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A212" s="27"/>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A213" s="27"/>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A214" s="27"/>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A215" s="27"/>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A216" s="27"/>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A217" s="27"/>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A218" s="27"/>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A219" s="27"/>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A220" s="27"/>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A221" s="27"/>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A222" s="27"/>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A223" s="27"/>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A224" s="27"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A225" s="27"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A226" s="27"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A227" s="27"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A228" s="27"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A229" s="27"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A230" s="27"/>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A231" s="27"/>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A232" s="27"/>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A233" s="27"/>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A234" s="27"/>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A235" s="27"/>
     </row>
   </sheetData>
@@ -5606,7 +5960,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
@@ -5616,62 +5970,62 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="37.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="37.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="37.5703125" style="20" customWidth="1"/>
-    <col min="3" max="15" width="22.85546875" style="20" customWidth="1"/>
-    <col min="16" max="16384" width="37.5703125" style="20"/>
+    <col min="1" max="2" width="37.5" style="20" customWidth="1"/>
+    <col min="3" max="15" width="22.83203125" style="20" customWidth="1"/>
+    <col min="16" max="16384" width="37.5" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -5680,122 +6034,122 @@
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
     </row>
-    <row r="8" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15" s="7"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
     </row>
-    <row r="16" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C16" s="7"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
     </row>
-    <row r="17" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C17" s="7"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
     </row>
-    <row r="18" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
       <c r="B18" s="14"/>
       <c r="C18" s="7"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
     </row>
-    <row r="19" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
@@ -5804,19 +6158,19 @@
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
     </row>
-    <row r="20" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="36" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B22" s="38"/>
       <c r="C22" s="38"/>
@@ -5827,7 +6181,7 @@
       <c r="H22" s="38"/>
       <c r="I22" s="38"/>
     </row>
-    <row r="23" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
         <v>4</v>
       </c>
@@ -5841,22 +6195,22 @@
         <v>7</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K23" s="10" t="s">
         <v>8</v>
@@ -5874,186 +6228,186 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C24" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D24" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>97</v>
-      </c>
       <c r="G24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N24" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O24" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
       <c r="R24" s="11"/>
     </row>
-    <row r="25" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D25" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" t="s">
-        <v>49</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>97</v>
-      </c>
       <c r="G25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M25" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N25" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O25" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P25" s="26"/>
     </row>
-    <row r="26" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D26" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" t="s">
-        <v>49</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>97</v>
-      </c>
       <c r="G26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M26" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N26" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="O26" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="O26" s="12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A27" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" t="s">
         <v>95</v>
       </c>
-      <c r="B27" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="D27" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D27" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>97</v>
-      </c>
       <c r="G27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M27" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N27" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="O27" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="O27" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A28" s="12"/>
       <c r="B28"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A29" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B29" s="12"/>
     </row>
-    <row r="30" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="22" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A31" s="6" t="s">
         <v>11</v>
       </c>
@@ -6062,7 +6416,7 @@
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
         <v>28</v>
       </c>
@@ -6071,144 +6425,144 @@
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" s="2"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" s="32" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B40" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B41" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A42" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B42" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B43" s="12"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48" s="5"/>
       <c r="B48" s="14"/>
       <c r="C48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
     </row>
-    <row r="49" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="29" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="30" t="s">
         <v>19</v>
       </c>
@@ -6219,78 +6573,78 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="B53" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="12" t="s">
+      <c r="B54" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="B54" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C54" s="12" t="s">
+      <c r="B55" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A56" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="12"/>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
     </row>
-    <row r="58" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59" s="29" t="s">
         <v>23</v>
       </c>
       <c r="D59" s="29"/>
     </row>
-    <row r="60" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60" s="30" t="s">
         <v>19</v>
       </c>
@@ -6308,162 +6662,162 @@
       </c>
       <c r="F60" s="30"/>
     </row>
-    <row r="61" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A61" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D61" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E61" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F61" s="33"/>
+    </row>
+    <row r="62" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E62" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F62" s="33"/>
+    </row>
+    <row r="63" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="B61" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D61" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="E61" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="F61" s="33"/>
-    </row>
-    <row r="62" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C62" s="12" t="s">
+      <c r="B63" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C63" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D62" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="E62" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="F62" s="33"/>
-    </row>
-    <row r="63" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="11" t="s">
+      <c r="D63" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E63" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F63" s="33"/>
+    </row>
+    <row r="64" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="B63" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C63" s="12" t="s">
+      <c r="B64" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C64" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D63" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="E63" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="F63" s="33"/>
-    </row>
-    <row r="64" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="11" t="s">
+      <c r="D64" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E64" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F64" s="33"/>
+    </row>
+    <row r="65" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="B64" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C64" s="12" t="s">
+      <c r="B65" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C65" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D64" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="E64" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="F64" s="33"/>
-    </row>
-    <row r="65" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="11" t="s">
+      <c r="D65" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E65" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F65" s="33"/>
+    </row>
+    <row r="66" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="B65" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C65" s="12" t="s">
+      <c r="B66" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C66" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D65" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="E65" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="F65" s="33"/>
-    </row>
-    <row r="66" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="11" t="s">
+      <c r="D66" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E66" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F66" s="33"/>
+    </row>
+    <row r="67" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="B66" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C66" s="12" t="s">
+      <c r="B67" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C67" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D66" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="E66" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="F66" s="33"/>
-    </row>
-    <row r="67" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="11" t="s">
+      <c r="D67" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E67" s="24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="B67" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C67" s="12" t="s">
+      <c r="B68" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C68" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D67" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="E67" s="24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="B68" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C68" s="20" t="s">
-        <v>45</v>
-      </c>
       <c r="D68" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E68" s="24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F69" s="24"/>
     </row>
-    <row r="70" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A70" s="21" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A71" s="29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A72" s="30" t="s">
         <v>25</v>
       </c>
@@ -6471,520 +6825,520 @@
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A73" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="B73" s="11" t="s">
+      <c r="B74" s="11" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="74" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="B74" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A75" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B75" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="B75" s="11" t="s">
+    </row>
+    <row r="76" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="11" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="11" t="s">
+      <c r="B76" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="B76" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="27"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="27"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="27"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A81" s="27"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A82" s="27"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A83" s="27"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A84" s="27"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A85" s="27"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A86" s="27"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A87" s="27"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A88" s="27"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A89" s="27"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A90" s="27"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A91" s="27"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A92" s="27"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A93" s="27"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A94" s="27"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A95" s="27"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A96" s="27"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A97" s="27"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A98" s="27"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A99" s="27"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A100" s="27"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A101" s="27"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A102" s="27"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A103" s="27"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A104" s="27"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A105" s="27"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A106" s="27"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A107" s="27"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A108" s="27"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A109" s="27"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A110" s="27"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A111" s="27"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A112" s="27"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A113" s="27"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A114" s="27"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A115" s="27"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A116" s="27"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A117" s="27"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A118" s="27"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A119" s="27"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A120" s="27"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A121" s="27"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A122" s="27"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A123" s="27"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A124" s="27"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A125" s="27"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A126" s="27"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A127" s="27"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A128" s="27"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A129" s="27"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A130" s="27"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A131" s="27"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A132" s="27"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A133" s="27"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A134" s="27"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A135" s="27"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A136" s="27"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A137" s="27"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A138" s="27"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A139" s="27"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A140" s="27"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A141" s="27"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A142" s="27"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A143" s="27"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A144" s="27"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A145" s="27"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A146" s="27"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A147" s="27"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A148" s="27"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A149" s="27"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A150" s="27"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A151" s="27"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A152" s="27"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A153" s="27"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A154" s="27"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A155" s="27"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A156" s="27"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A157" s="27"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A158" s="27"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A159" s="27"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A160" s="27"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A161" s="27"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A162" s="27"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A163" s="27"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A164" s="27"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A165" s="27"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A166" s="27"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A167" s="27"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A168" s="27"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A169" s="27"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A170" s="27"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A171" s="27"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A172" s="27"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A173" s="27"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A174" s="27"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A175" s="27"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A176" s="27"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A177" s="27"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A178" s="27"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A179" s="27"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A180" s="27"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A181" s="27"/>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A182" s="27"/>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A183" s="27"/>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A184" s="27"/>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A185" s="27"/>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A186" s="27"/>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A187" s="27"/>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A188" s="27"/>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A189" s="27"/>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A190" s="27"/>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A191" s="27"/>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A192" s="27"/>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A193" s="27"/>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A194" s="27"/>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A195" s="27"/>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A196" s="27"/>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A197" s="27"/>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A198" s="27"/>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A199" s="27"/>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A200" s="27"/>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A201" s="27"/>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A202" s="27"/>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A203" s="27"/>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A204" s="27"/>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A205" s="27"/>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A206" s="27"/>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A207" s="27"/>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A208" s="27"/>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A209" s="27"/>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A210" s="27"/>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A211" s="27"/>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A212" s="27"/>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A213" s="27"/>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A214" s="27"/>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A215" s="27"/>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A216" s="27"/>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A217" s="27"/>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A218" s="27"/>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A219" s="27"/>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A220" s="27"/>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A221" s="27"/>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A222" s="27"/>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A223" s="27"/>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A224" s="27"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A225" s="27"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A226" s="27"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A227" s="27"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A228" s="27"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A229" s="27"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A230" s="27"/>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A231" s="27"/>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A232" s="27"/>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A233" s="27"/>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A234" s="27"/>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A235" s="27"/>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A236" s="27"/>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A237" s="27"/>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A238" s="27"/>
     </row>
   </sheetData>

--- a/data/GEO_upload_info/Human-tumor-seq.xlsx
+++ b/data/GEO_upload_info/Human-tumor-seq.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smgroves/Documents/GitHub/Groves-CellSys2021/data/GEO_upload_info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB75CB6-59F9-0E4A-AAE1-629A5AB9E302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2552E5-7898-6643-A6C2-F0DE4A5CF153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="17920" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22500" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="METADATA TEMPLATE " sheetId="1" r:id="rId1"/>
@@ -679,6 +679,98 @@
           <rPr>
             <b/>
             <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Provide details of how processed data were generated. Steps may include:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Base-calling software, version, parameters;
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Data filtering steps;
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Read alignment software, version, parameters;
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Additional processing software (e.g., peak-calling, abundance measurement), version, parameters;
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">etc...
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A44" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
@@ -693,7 +785,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A44" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
+    <comment ref="A45" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -713,67 +805,482 @@
         </r>
       </text>
     </comment>
-    <comment ref="A45" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="8"/>
+    <comment ref="A46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">Provide details of how processed data were generated. Steps may include:
-Base-calling software, version, parameters;
-Data filtering steps;
-Read alignment software, version, parameters;
-Additional processing software (e.g., peak-calling, abundance measurement), version, parameters;
-etc...
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="8"/>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Base-calling software, version, parameters;
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Data filtering steps;
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Read alignment software, version, parameters;
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Additional processing software (e.g., peak-calling, abundance measurement), version, parameters;
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">etc...
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A47" authorId="0" shapeId="0" xr:uid="{5994A26E-57CA-CD49-B84F-96D02CAC509B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">Provide details of how processed data were generated. Steps may include:
-Base-calling software, version, parameters;
-Data filtering steps;
-Read alignment software, version, parameters;
-Additional processing software (e.g., peak-calling, abundance measurement), version, parameters;
-etc...
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A47" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="8"/>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Base-calling software, version, parameters;
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Data filtering steps;
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Read alignment software, version, parameters;
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Additional processing software (e.g., peak-calling, abundance measurement), version, parameters;
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">etc...
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A48" authorId="0" shapeId="0" xr:uid="{FF592469-E78A-034D-A4A2-0A531E71D22B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">Provide details of how processed data were generated. Steps may include:
-Base-calling software, version, parameters;
-Data filtering steps;
-Read alignment software, version, parameters;
-Additional processing software (e.g., peak-calling, abundance measurement), version, parameters;
-etc...
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Base-calling software, version, parameters;
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Data filtering steps;
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Read alignment software, version, parameters;
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Additional processing software (e.g., peak-calling, abundance measurement), version, parameters;
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">etc...
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A49" authorId="0" shapeId="0" xr:uid="{5C062C7D-7C15-BA4E-B75B-03A26B80C885}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Provide details of how processed data were generated. Steps may include:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Base-calling software, version, parameters;
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Data filtering steps;
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Read alignment software, version, parameters;
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Additional processing software (e.g., peak-calling, abundance measurement), version, parameters;
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">etc...
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A50" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Provide details of how processed data were generated. Steps may include:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Base-calling software, version, parameters;
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Data filtering steps;
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Read alignment software, version, parameters;
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Additional processing software (e.g., peak-calling, abundance measurement), version, parameters;
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">etc...
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A51" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">UCSC or NCBI genome build number (e.g., hg18, mm9, human NCBI genome build 36, etc...), or reference sequence used for read alignment. 
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A52" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
       <text>
         <r>
           <rPr>
@@ -783,12 +1290,12 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">UCSC or NCBI genome build number (e.g., hg18, mm9, human NCBI genome build 36, etc...), or reference sequence used for read alignment. 
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A49" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
+          <t xml:space="preserve">For each processed data file type, provide a description of the format and content.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B56" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021000000}">
       <text>
         <r>
           <rPr>
@@ -798,26 +1305,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">For each processed data file type, provide a description of the format and content.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B53" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
           <t>The type of processed file. Examples include, peak, wig, bed, gff, bigWig, etc...</t>
         </r>
       </text>
     </comment>
-    <comment ref="C53" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000022000000}">
+    <comment ref="C56" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000022000000}">
       <text>
         <r>
           <rPr>
@@ -832,7 +1324,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B59" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000023000000}">
+    <comment ref="B62" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000023000000}">
       <text>
         <r>
           <rPr>
@@ -859,7 +1351,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C59" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000024000000}">
+    <comment ref="C62" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000024000000}">
       <text>
         <r>
           <rPr>
@@ -874,7 +1366,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D59" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000025000000}">
+    <comment ref="D62" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000025000000}">
       <text>
         <r>
           <rPr>
@@ -937,7 +1429,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E59" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000026000000}">
+    <comment ref="E62" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000026000000}">
       <text>
         <r>
           <rPr>
@@ -2265,7 +2757,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="197">
   <si>
     <t>title</t>
   </si>
@@ -3098,12 +3590,234 @@
   <si>
     <t>RNA-seq</t>
   </si>
+  <si>
+    <r>
+      <t>DropEst pipeline was used to process scRNA-seq data and to generate count matrices of each gene in each cell (Petukhov et al., 2018). Specifically, cell barcodes and UMIs were extracted by dropTag, reads were aligned to the human reference transcriptome hg38 using STAR</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Dobin et al., 2013)</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>and cell barcode errors were corrected and gene-by-cell count matrices and three other count matrices for exons, introns and exon/intron spanning reads were measured by dropEst. Spliced and unspliced reads were annotated and RNA expression dynamics of single cells were estimated by velocyto (Manno et al., 2018).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We initially filter out cells with &lt; 100 genes using </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">scanpy.pp.filter_cells </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">with min_genes = 100. This reduces the total number of cells (in both tumors) from 8,649 to 4,863. We remove genes found in &lt; 3 total spliced counts across all samples with </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>scanpy.pp.filter_genes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> with min_counts &lt; 3. This reduces the number of genes from 43,306 to 15,344. These filtering steps ensure we remove any cells or genes with low or no reads, to prepare for further filtering steps below. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">We then use Dropkick v1.2.6 (https://github.com/KenLauLab/dropkick) to label and filter out low quality cells from each sample. Once each sample has dropkick scores and labels (using dropkick score &gt; 0.5 to identify high quality cells), we then concatenate the datasets with a batch key for each tumor. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We normalize the data using </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>scanpy.pp.normalize_total</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> and used default arguments for this normalization (as described in the Scanpy API v 1.8), such that after normalization, each cell has a total count equal to the median of total counts for cells before normalization. Next, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>numpy.log1p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> is used to log transform the data (+1, which keeps zeroes from being transformed to negative infinity). Finally, the log-transformed, normalized counts are then scaled using </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>scapy.pp.scale</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, which rescales the data to unit variance and mean-centers each gene. We then use </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">scanpy.tl.pca </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">to compute a 50-component PCA embedding of the data, using all genes, and use </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">scvelo.pp.neighbors </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> scvelo.tl.umap </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>to generate a UMAP dimensionality reduction.</t>
+    </r>
+  </si>
+  <si>
+    <t>We use Scrublet to determine the number of possible doublets in the data. One tumor had 6 predicted doublets (out of 7741 original cells before filtering); the other had 3 (out of 580 original cells), which were removed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Because these samples may contain non-tumor cells, we annotated clusters by cell type based on expression of tissue compartment markers. First, we clustered cells by the Leiden algorithm and then analyzed expression of markers across these clusters. To remove immune cells, we filtered clusters by expression of PTPRC. To remove fibroblasts, we filtered cells used COL1A1 expression, and we used CLDN5 expression to remove endothelial cells. We also used EPCAM to identify epithelial cells. We found several small clusters of immune cells and a single small population of likely fibroblasts. A single cluster had a few cells with low expression of CLDN5, and higher average expression of EPCAM, so we chose not to remove this cluster. Removing the other non-cancer cells reduced the number of cells from 4,863 to 4,485. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">After removing so many cells, we re-filter the genes with a low threshold (min_cells = 3) to remove any genes that were only expressed in the low-quality cells. This reduces the number of genes from 15,344 to 13,938. Therefore, we moved forward with the analysis with 1618 cells and 13,938 across two tumors. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We use Scrublet to determine the number of possible doublets in the data. One tumor had 6 predicted doublets (out of 7741 original cells before filtering); the other had 3 (out of 580 original cells), which were removed.
+Because these samples may contain non-tumor cells, we annotated clusters by cell type based on expression of tissue compartment markers. First, we clustered cells by the Leiden algorithm and then analyzed expression of markers across these clusters. To remove immune cells, we filtered clusters by expression of PTPRC. To remove fibroblasts, we filtered cells used COL1A1 expression, and we used CLDN5 expression to remove endothelial cells. We also used EPCAM to identify epithelial cells. We found several small clusters of immune cells and a single small population of likely fibroblasts. A single cluster had a few cells with low expression of CLDN5, and higher average expression of EPCAM, so we chose not to remove this cluster. Removing the other non-cancer cells reduced the number of cells from 4,863 to 4,485. 
+After removing so many cells, we re-filter the genes with a low threshold (min_cells = 3) to remove any genes that were only expressed in the low-quality cells. This reduces the number of genes from 15,344 to 13,938. Therefore, we moved forward with the analysis with 1618 cells and 13,938 across two tumors. </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3197,6 +3911,25 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -3231,7 +3964,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -3279,8 +4012,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3289,6 +4020,23 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3631,16 +4379,17 @@
   <sheetPr>
     <tabColor indexed="14"/>
   </sheetPr>
-  <dimension ref="A1:K231"/>
+  <dimension ref="A1:K234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="90" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="28.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="42.1640625" style="20" customWidth="1"/>
-    <col min="2" max="16384" width="28.6640625" style="20"/>
+    <col min="2" max="2" width="66.1640625" style="20" customWidth="1"/>
+    <col min="3" max="16384" width="28.6640625" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -3713,7 +4462,7 @@
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="37" t="s">
         <v>167</v>
       </c>
       <c r="C9" s="7"/>
@@ -3724,7 +4473,7 @@
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="38" t="s">
         <v>168</v>
       </c>
       <c r="C10" s="7"/>
@@ -3735,7 +4484,7 @@
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="39" t="s">
         <v>173</v>
       </c>
       <c r="C11" s="7"/>
@@ -3822,16 +4571,16 @@
       </c>
     </row>
     <row r="21" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
     </row>
     <row r="22" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
@@ -3952,7 +4701,7 @@
       <c r="A34" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="42" t="s">
+      <c r="B34" s="40" t="s">
         <v>184</v>
       </c>
       <c r="C34" s="8"/>
@@ -3974,7 +4723,7 @@
       <c r="A36" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B36" s="42" t="s">
+      <c r="B36" s="40" t="s">
         <v>186</v>
       </c>
       <c r="C36" s="8"/>
@@ -4018,180 +4767,206 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B43" s="40" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="90" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B44" s="44" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="60" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B45" s="44" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B46" s="12"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A47" s="5" t="s">
+      <c r="B46" s="40" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="270" x14ac:dyDescent="0.15">
+      <c r="A47" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A48" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A49" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A50" s="5"/>
-      <c r="B50" s="14"/>
+      <c r="B47" s="46" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="45" x14ac:dyDescent="0.15">
+      <c r="A48" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" s="43" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="165" x14ac:dyDescent="0.15">
+      <c r="A49" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49" s="45" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="60" x14ac:dyDescent="0.15">
+      <c r="A50" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50" s="43" t="s">
+        <v>195</v>
+      </c>
       <c r="C50" s="8"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
     </row>
-    <row r="51" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="21" t="s">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A51" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A52" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A53" s="5"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+    </row>
+    <row r="54" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="21" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="29" t="s">
+    <row r="55" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="29" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="30" t="s">
+    <row r="56" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B53" s="30" t="s">
+      <c r="B56" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C53" s="31" t="s">
+      <c r="C56" s="31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="12"/>
-    </row>
-    <row r="55" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="12"/>
-    </row>
-    <row r="56" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="12"/>
-    </row>
-    <row r="57" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="21" t="s">
+    <row r="57" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="12"/>
+    </row>
+    <row r="58" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="12"/>
+    </row>
+    <row r="59" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="12"/>
+    </row>
+    <row r="60" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="21" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="58" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="29" t="s">
+    <row r="61" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D58" s="29"/>
-    </row>
-    <row r="59" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="30" t="s">
+      <c r="D61" s="29"/>
+    </row>
+    <row r="62" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B59" s="30" t="s">
+      <c r="B62" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C59" s="31" t="s">
+      <c r="C62" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D59" s="30" t="s">
+      <c r="D62" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E59" s="30" t="s">
+      <c r="E62" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="F59" s="30"/>
-    </row>
-    <row r="60" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F60" s="24"/>
-    </row>
-    <row r="61" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F61" s="24"/>
-    </row>
-    <row r="62" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F62" s="24"/>
-    </row>
-    <row r="63" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="21" t="s">
+      <c r="F62" s="30"/>
+    </row>
+    <row r="63" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F63" s="24"/>
+    </row>
+    <row r="64" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F64" s="24"/>
+    </row>
+    <row r="65" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F65" s="24"/>
+    </row>
+    <row r="66" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="21" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="29" t="s">
+    <row r="67" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="30" t="s">
+    <row r="68" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B65" s="30" t="s">
+      <c r="B68" s="30" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="67" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="68" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="69" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="70" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A71" s="27"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A72" s="27"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A73" s="27"/>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="70" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="71" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="72" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="73" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="27"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="27"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="27"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="27"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="27"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="27"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="27"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.15">
@@ -4646,6 +5421,15 @@
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A231" s="27"/>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A232" s="27"/>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A233" s="27"/>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A234" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4849,17 +5633,17 @@
       </c>
     </row>
     <row r="19" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
     </row>
     <row r="20" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10" t="s">
@@ -6169,17 +6953,17 @@
       </c>
     </row>
     <row r="22" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
     </row>
     <row r="23" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
